--- a/Code/Results/Cases/Case_2_149/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_149/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.054785202492262</v>
+        <v>1.079437672839434</v>
       </c>
       <c r="D2">
-        <v>1.067847483446187</v>
+        <v>1.082468570995508</v>
       </c>
       <c r="E2">
-        <v>1.045686410255266</v>
+        <v>1.077609996695981</v>
       </c>
       <c r="F2">
-        <v>1.065683652146285</v>
+        <v>1.091387622825828</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.075946493811286</v>
+        <v>1.064830520483784</v>
       </c>
       <c r="J2">
-        <v>1.075442261973442</v>
+        <v>1.084322175320534</v>
       </c>
       <c r="K2">
-        <v>1.078436096518399</v>
+        <v>1.0851367087605</v>
       </c>
       <c r="L2">
-        <v>1.05654394191618</v>
+        <v>1.080290844615396</v>
       </c>
       <c r="M2">
-        <v>1.076297911956924</v>
+        <v>1.094032745868362</v>
       </c>
       <c r="N2">
-        <v>1.076969513340396</v>
+        <v>1.085862037182981</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.06194576970897</v>
+        <v>1.080818345942717</v>
       </c>
       <c r="D3">
-        <v>1.073808571278388</v>
+        <v>1.083622919188407</v>
       </c>
       <c r="E3">
-        <v>1.052369032605268</v>
+        <v>1.078919175726516</v>
       </c>
       <c r="F3">
-        <v>1.072441382486451</v>
+        <v>1.092725114617711</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.079213434678093</v>
+        <v>1.065359735033636</v>
       </c>
       <c r="J3">
-        <v>1.080879236939879</v>
+        <v>1.085361809124349</v>
       </c>
       <c r="K3">
-        <v>1.083576748486252</v>
+        <v>1.08610888314138</v>
       </c>
       <c r="L3">
-        <v>1.062372978781388</v>
+        <v>1.081416550490377</v>
       </c>
       <c r="M3">
-        <v>1.082224249579844</v>
+        <v>1.095189297141629</v>
       </c>
       <c r="N3">
-        <v>1.082414209434915</v>
+        <v>1.086903147386045</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.066442142590296</v>
+        <v>1.08171040081098</v>
       </c>
       <c r="D4">
-        <v>1.077552793794732</v>
+        <v>1.084368551582291</v>
       </c>
       <c r="E4">
-        <v>1.05655934241833</v>
+        <v>1.079763922590518</v>
       </c>
       <c r="F4">
-        <v>1.07668480584199</v>
+        <v>1.093588958903486</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.081252112945285</v>
+        <v>1.065700158957378</v>
       </c>
       <c r="J4">
-        <v>1.084286493900732</v>
+        <v>1.086032677944361</v>
       </c>
       <c r="K4">
-        <v>1.08679735039131</v>
+        <v>1.08673605182142</v>
       </c>
       <c r="L4">
-        <v>1.066019901863856</v>
+        <v>1.082142028096045</v>
       </c>
       <c r="M4">
-        <v>1.085938090066469</v>
+        <v>1.095935510362141</v>
       </c>
       <c r="N4">
-        <v>1.08582630509147</v>
+        <v>1.087574968916731</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.068301413959143</v>
+        <v>1.082085107813336</v>
       </c>
       <c r="D5">
-        <v>1.079101240051632</v>
+        <v>1.084681707093636</v>
       </c>
       <c r="E5">
-        <v>1.058290623302671</v>
+        <v>1.080118491681366</v>
       </c>
       <c r="F5">
-        <v>1.07843945613967</v>
+        <v>1.093951741803806</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.08209202564468</v>
+        <v>1.065842794029968</v>
       </c>
       <c r="J5">
-        <v>1.085693746391783</v>
+        <v>1.086314274674831</v>
       </c>
       <c r="K5">
-        <v>1.088127274862477</v>
+        <v>1.086999264907732</v>
       </c>
       <c r="L5">
-        <v>1.067524718736189</v>
+        <v>1.08244632426267</v>
       </c>
       <c r="M5">
-        <v>1.087471957380913</v>
+        <v>1.09624870896518</v>
       </c>
       <c r="N5">
-        <v>1.087235556042473</v>
+        <v>1.087856965546858</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.068611825117908</v>
+        <v>1.082148004602233</v>
       </c>
       <c r="D6">
-        <v>1.079359767692075</v>
+        <v>1.084734269339517</v>
       </c>
       <c r="E6">
-        <v>1.058579581675492</v>
+        <v>1.080177992614787</v>
       </c>
       <c r="F6">
-        <v>1.078732398257785</v>
+        <v>1.094012632712048</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.082232069044553</v>
+        <v>1.06586671507113</v>
       </c>
       <c r="J6">
-        <v>1.085928592858497</v>
+        <v>1.086361530548425</v>
       </c>
       <c r="K6">
-        <v>1.088349202482036</v>
+        <v>1.087043433368514</v>
       </c>
       <c r="L6">
-        <v>1.067775764128628</v>
+        <v>1.082497376388636</v>
       </c>
       <c r="M6">
-        <v>1.087727933529145</v>
+        <v>1.096301266687483</v>
       </c>
       <c r="N6">
-        <v>1.087470736018106</v>
+        <v>1.087904288529213</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.066467105827744</v>
+        <v>1.08171540888588</v>
       </c>
       <c r="D7">
-        <v>1.077573583095746</v>
+        <v>1.084372737187198</v>
       </c>
       <c r="E7">
-        <v>1.056582592884879</v>
+        <v>1.079768662561373</v>
       </c>
       <c r="F7">
-        <v>1.076708364533633</v>
+        <v>1.093593807900745</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.081263402183509</v>
+        <v>1.065702066733405</v>
       </c>
       <c r="J7">
-        <v>1.084305394798093</v>
+        <v>1.086036442362846</v>
       </c>
       <c r="K7">
-        <v>1.086815213637006</v>
+        <v>1.086739570644669</v>
       </c>
       <c r="L7">
-        <v>1.066040118751336</v>
+        <v>1.082146096837416</v>
       </c>
       <c r="M7">
-        <v>1.085958691555244</v>
+        <v>1.095939697331564</v>
       </c>
       <c r="N7">
-        <v>1.085845232830274</v>
+        <v>1.087578738681122</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.057234642495739</v>
+        <v>1.079904557545791</v>
       </c>
       <c r="D8">
-        <v>1.069886355820431</v>
+        <v>1.082858962121182</v>
       </c>
       <c r="E8">
-        <v>1.047973608995227</v>
+        <v>1.0780529368987</v>
       </c>
       <c r="F8">
-        <v>1.067995274034032</v>
+        <v>1.091839970055864</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.077066698590687</v>
+        <v>1.065009789594304</v>
       </c>
       <c r="J8">
-        <v>1.077303525429158</v>
+        <v>1.084673909142955</v>
       </c>
       <c r="K8">
-        <v>1.080196115504245</v>
+        <v>1.085465654409366</v>
       </c>
       <c r="L8">
-        <v>1.058540712897694</v>
+        <v>1.080671892761621</v>
       </c>
       <c r="M8">
-        <v>1.078326728459533</v>
+        <v>1.094424057124838</v>
       </c>
       <c r="N8">
-        <v>1.078833420003709</v>
+        <v>1.086214270507774</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.039827441847429</v>
+        <v>1.076703116447553</v>
       </c>
       <c r="D9">
-        <v>1.055404073793827</v>
+        <v>1.080181262262247</v>
       </c>
       <c r="E9">
-        <v>1.031693941804731</v>
+        <v>1.075011062679034</v>
       </c>
       <c r="F9">
-        <v>1.051568750980476</v>
+        <v>1.088736925488656</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.069052077309004</v>
+        <v>1.063774361789257</v>
       </c>
       <c r="J9">
-        <v>1.064048141598985</v>
+        <v>1.082258610862702</v>
       </c>
       <c r="K9">
-        <v>1.067657952004674</v>
+        <v>1.083206145064131</v>
       </c>
       <c r="L9">
-        <v>1.044292914971958</v>
+        <v>1.078051421255545</v>
       </c>
       <c r="M9">
-        <v>1.063877116079672</v>
+        <v>1.091736550251958</v>
       </c>
       <c r="N9">
-        <v>1.065559212008083</v>
+        <v>1.083795542226925</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.027316724249704</v>
+        <v>1.074561374845161</v>
       </c>
       <c r="D10">
-        <v>1.045008048769224</v>
+        <v>1.078388942627017</v>
       </c>
       <c r="E10">
-        <v>1.019961293322493</v>
+        <v>1.072970224560134</v>
       </c>
       <c r="F10">
-        <v>1.039766036659943</v>
+        <v>1.086659383340199</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.06322456332734</v>
+        <v>1.06294011029789</v>
       </c>
       <c r="J10">
-        <v>1.054486941089457</v>
+        <v>1.080638461014891</v>
       </c>
       <c r="K10">
-        <v>1.058609589787656</v>
+        <v>1.081689626545275</v>
       </c>
       <c r="L10">
-        <v>1.033979256886108</v>
+        <v>1.07628873275704</v>
       </c>
       <c r="M10">
-        <v>1.053452596961086</v>
+        <v>1.089933237912336</v>
       </c>
       <c r="N10">
-        <v>1.055984433497146</v>
+        <v>1.082173091580496</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.021647689858552</v>
+        <v>1.073632122113622</v>
       </c>
       <c r="D11">
-        <v>1.040301429488065</v>
+        <v>1.077611075305607</v>
       </c>
       <c r="E11">
-        <v>1.014637280446364</v>
+        <v>1.072083352953826</v>
       </c>
       <c r="F11">
-        <v>1.0344191513237</v>
+        <v>1.085757596381488</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.060568478026756</v>
+        <v>1.062576307708906</v>
       </c>
       <c r="J11">
-        <v>1.050146828315211</v>
+        <v>1.079934488576409</v>
       </c>
       <c r="K11">
-        <v>1.054501340482022</v>
+        <v>1.081030477515419</v>
       </c>
       <c r="L11">
-        <v>1.029288339323595</v>
+        <v>1.075521649273864</v>
       </c>
       <c r="M11">
-        <v>1.0487199085933</v>
+        <v>1.089149538418754</v>
       </c>
       <c r="N11">
-        <v>1.051638157264943</v>
+        <v>1.081468119420405</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.019500480873696</v>
+        <v>1.073286668444973</v>
       </c>
       <c r="D12">
-        <v>1.038519488009242</v>
+        <v>1.077321867157773</v>
       </c>
       <c r="E12">
-        <v>1.012619631903291</v>
+        <v>1.071753443497181</v>
       </c>
       <c r="F12">
-        <v>1.032394215173415</v>
+        <v>1.085422294548085</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.059560190294544</v>
+        <v>1.062440786132543</v>
       </c>
       <c r="J12">
-        <v>1.04850187561556</v>
+        <v>1.079672629689012</v>
       </c>
       <c r="K12">
-        <v>1.052944140358364</v>
+        <v>1.080785260922612</v>
       </c>
       <c r="L12">
-        <v>1.027508988585294</v>
+        <v>1.075236137027299</v>
       </c>
       <c r="M12">
-        <v>1.046926040032208</v>
+        <v>1.088858001504812</v>
       </c>
       <c r="N12">
-        <v>1.04999086854378</v>
+        <v>1.081205888663352</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.019963005305247</v>
+        <v>1.073360782578882</v>
       </c>
       <c r="D13">
-        <v>1.038903295695179</v>
+        <v>1.077383915764636</v>
       </c>
       <c r="E13">
-        <v>1.013054298371811</v>
+        <v>1.071824232323633</v>
       </c>
       <c r="F13">
-        <v>1.03283038865811</v>
+        <v>1.085494233351763</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.059777484157607</v>
+        <v>1.062469873635535</v>
       </c>
       <c r="J13">
-        <v>1.048856258506118</v>
+        <v>1.079728816249101</v>
       </c>
       <c r="K13">
-        <v>1.053279623613589</v>
+        <v>1.080837877970464</v>
       </c>
       <c r="L13">
-        <v>1.027892391506389</v>
+        <v>1.075297406900838</v>
       </c>
       <c r="M13">
-        <v>1.047312510849679</v>
+        <v>1.088920557012185</v>
       </c>
       <c r="N13">
-        <v>1.050345754698691</v>
+        <v>1.081262155014801</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.021471069836337</v>
+        <v>1.073603572722048</v>
       </c>
       <c r="D14">
-        <v>1.040154839022731</v>
+        <v>1.077587174885934</v>
       </c>
       <c r="E14">
-        <v>1.014471340120116</v>
+        <v>1.0720560924977</v>
       </c>
       <c r="F14">
-        <v>1.034252583409356</v>
+        <v>1.085729887168192</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.060485586304223</v>
+        <v>1.062565113411246</v>
       </c>
       <c r="J14">
-        <v>1.050011543403203</v>
+        <v>1.079912850866708</v>
       </c>
       <c r="K14">
-        <v>1.054373275035501</v>
+        <v>1.081010215606136</v>
       </c>
       <c r="L14">
-        <v>1.029142030661369</v>
+        <v>1.075498060689086</v>
       </c>
       <c r="M14">
-        <v>1.048572379145515</v>
+        <v>1.089125448824016</v>
       </c>
       <c r="N14">
-        <v>1.051502680232844</v>
+        <v>1.081446450982674</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.022394624716945</v>
+        <v>1.073753125370497</v>
       </c>
       <c r="D15">
-        <v>1.040921398726477</v>
+        <v>1.077712373105245</v>
       </c>
       <c r="E15">
-        <v>1.015339004914735</v>
+        <v>1.072198884558206</v>
       </c>
       <c r="F15">
-        <v>1.035123586040737</v>
+        <v>1.0858750362371</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.060918939498469</v>
+        <v>1.062623742114461</v>
       </c>
       <c r="J15">
-        <v>1.050718911102381</v>
+        <v>1.080026191168795</v>
       </c>
       <c r="K15">
-        <v>1.055042889079697</v>
+        <v>1.081116348079073</v>
       </c>
       <c r="L15">
-        <v>1.029906979766898</v>
+        <v>1.075621612572593</v>
       </c>
       <c r="M15">
-        <v>1.049343764946716</v>
+        <v>1.089251631433004</v>
       </c>
       <c r="N15">
-        <v>1.05221105247529</v>
+        <v>1.081559952240991</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.02768735368823</v>
+        <v>1.074623006349098</v>
       </c>
       <c r="D16">
-        <v>1.045315853277422</v>
+        <v>1.078440529082628</v>
       </c>
       <c r="E16">
-        <v>1.020309210958186</v>
+        <v>1.073029015658696</v>
       </c>
       <c r="F16">
-        <v>1.04011563668268</v>
+        <v>1.086719185002768</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.063397897563355</v>
+        <v>1.062964200308064</v>
       </c>
       <c r="J16">
-        <v>1.054770535649334</v>
+        <v>1.080685129488383</v>
       </c>
       <c r="K16">
-        <v>1.058878015645759</v>
+        <v>1.081733319220098</v>
       </c>
       <c r="L16">
-        <v>1.034285578801085</v>
+        <v>1.076339560215917</v>
       </c>
       <c r="M16">
-        <v>1.053761827429355</v>
+        <v>1.089985188724258</v>
       </c>
       <c r="N16">
-        <v>1.056268430793828</v>
+        <v>1.082219826328573</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.030937498892943</v>
+        <v>1.075168155103249</v>
       </c>
       <c r="D17">
-        <v>1.048015553804757</v>
+        <v>1.078896801019117</v>
       </c>
       <c r="E17">
-        <v>1.023359340721111</v>
+        <v>1.073548878665773</v>
       </c>
       <c r="F17">
-        <v>1.043181525304459</v>
+        <v>1.087248103361106</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.064916175189244</v>
+        <v>1.063177071194934</v>
       </c>
       <c r="J17">
-        <v>1.057256597987609</v>
+        <v>1.081097807400472</v>
       </c>
       <c r="K17">
-        <v>1.061231002060618</v>
+        <v>1.082119659180962</v>
       </c>
       <c r="L17">
-        <v>1.036969828114492</v>
+        <v>1.076788879232399</v>
       </c>
       <c r="M17">
-        <v>1.056472540544503</v>
+        <v>1.09044456074198</v>
       </c>
       <c r="N17">
-        <v>1.058758023625778</v>
+        <v>1.082633090290632</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.032809227694851</v>
+        <v>1.075485951777158</v>
       </c>
       <c r="D18">
-        <v>1.049570670534472</v>
+        <v>1.079162765279213</v>
       </c>
       <c r="E18">
-        <v>1.025115172806035</v>
+        <v>1.073851800197434</v>
       </c>
       <c r="F18">
-        <v>1.044947263222296</v>
+        <v>1.087556400998461</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.065789084194349</v>
+        <v>1.063300987823803</v>
       </c>
       <c r="J18">
-        <v>1.058687580601138</v>
+        <v>1.081338280735613</v>
       </c>
       <c r="K18">
-        <v>1.062585297847777</v>
+        <v>1.082344765221866</v>
       </c>
       <c r="L18">
-        <v>1.038514024270426</v>
+        <v>1.077050590650517</v>
       </c>
       <c r="M18">
-        <v>1.058032769399062</v>
+        <v>1.090712229860451</v>
       </c>
       <c r="N18">
-        <v>1.060191038398754</v>
+        <v>1.082873905125492</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.033443466670698</v>
+        <v>1.075594282038029</v>
       </c>
       <c r="D19">
-        <v>1.050097686823579</v>
+        <v>1.079253423319937</v>
       </c>
       <c r="E19">
-        <v>1.025710019211309</v>
+        <v>1.073955037013849</v>
       </c>
       <c r="F19">
-        <v>1.045545605928861</v>
+        <v>1.087661486889366</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.06608462314171</v>
+        <v>1.06334319834275</v>
       </c>
       <c r="J19">
-        <v>1.059172348557842</v>
+        <v>1.081420236300399</v>
       </c>
       <c r="K19">
-        <v>1.06304407162607</v>
+        <v>1.082421480109765</v>
       </c>
       <c r="L19">
-        <v>1.039037000084849</v>
+        <v>1.077139765179752</v>
       </c>
       <c r="M19">
-        <v>1.058561311450041</v>
+        <v>1.09080345172165</v>
       </c>
       <c r="N19">
-        <v>1.060676494781561</v>
+        <v>1.082955977076581</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.030591299001807</v>
+        <v>1.07510968441188</v>
       </c>
       <c r="D20">
-        <v>1.047727945653008</v>
+        <v>1.078847865136225</v>
       </c>
       <c r="E20">
-        <v>1.023034519807514</v>
+        <v>1.073493133977309</v>
       </c>
       <c r="F20">
-        <v>1.042854939180378</v>
+        <v>1.087191377361089</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.064754601547314</v>
+        <v>1.063154257775317</v>
       </c>
       <c r="J20">
-        <v>1.056991861139501</v>
+        <v>1.081053555288396</v>
       </c>
       <c r="K20">
-        <v>1.060980445322038</v>
+        <v>1.08207823337706</v>
       </c>
       <c r="L20">
-        <v>1.036684076742163</v>
+        <v>1.076740709758162</v>
       </c>
       <c r="M20">
-        <v>1.056183887709163</v>
+        <v>1.090395302951281</v>
       </c>
       <c r="N20">
-        <v>1.058492910820981</v>
+        <v>1.082588775335482</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.021028159120656</v>
+        <v>1.073532085083986</v>
       </c>
       <c r="D21">
-        <v>1.039787245888284</v>
+        <v>1.077527327741681</v>
       </c>
       <c r="E21">
-        <v>1.01405519296223</v>
+        <v>1.071987828938441</v>
       </c>
       <c r="F21">
-        <v>1.033834884710187</v>
+        <v>1.085660502386746</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.060277682167141</v>
+        <v>1.062537078440751</v>
       </c>
       <c r="J21">
-        <v>1.049672271621864</v>
+        <v>1.079858667581709</v>
       </c>
       <c r="K21">
-        <v>1.054052106474485</v>
+        <v>1.080959476984426</v>
       </c>
       <c r="L21">
-        <v>1.028775089861246</v>
+        <v>1.075438989317433</v>
       </c>
       <c r="M21">
-        <v>1.048202398041665</v>
+        <v>1.089065125387985</v>
       </c>
       <c r="N21">
-        <v>1.05116292664666</v>
+        <v>1.081392190751195</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.014773278730827</v>
+        <v>1.072538516620261</v>
       </c>
       <c r="D22">
-        <v>1.034597951235395</v>
+        <v>1.076695467554206</v>
       </c>
       <c r="E22">
-        <v>1.008175615191081</v>
+        <v>1.071038568502557</v>
       </c>
       <c r="F22">
-        <v>1.027936742773148</v>
+        <v>1.084696021004768</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.057336269746554</v>
+        <v>1.062146780324079</v>
       </c>
       <c r="J22">
-        <v>1.044878479353697</v>
+        <v>1.079105237901011</v>
       </c>
       <c r="K22">
-        <v>1.049513822493983</v>
+        <v>1.080253873087883</v>
       </c>
       <c r="L22">
-        <v>1.023586832948135</v>
+        <v>1.074617167184938</v>
       </c>
       <c r="M22">
-        <v>1.042974365076807</v>
+        <v>1.088226263560108</v>
       </c>
       <c r="N22">
-        <v>1.046362326643616</v>
+        <v>1.080637691113932</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.018113412732895</v>
+        <v>1.073065386867084</v>
       </c>
       <c r="D23">
-        <v>1.037368602482573</v>
+        <v>1.077136604721187</v>
       </c>
       <c r="E23">
-        <v>1.011315944252779</v>
+        <v>1.071542059246873</v>
       </c>
       <c r="F23">
-        <v>1.031086213202554</v>
+        <v>1.085207499211902</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.058908218248373</v>
+        <v>1.06235389949026</v>
       </c>
       <c r="J23">
-        <v>1.047438959205136</v>
+        <v>1.079504851665413</v>
       </c>
       <c r="K23">
-        <v>1.051937893040589</v>
+        <v>1.080628137270031</v>
       </c>
       <c r="L23">
-        <v>1.026358816037607</v>
+        <v>1.07505315367746</v>
       </c>
       <c r="M23">
-        <v>1.045766860771998</v>
+        <v>1.088671202026037</v>
       </c>
       <c r="N23">
-        <v>1.048926442670135</v>
+        <v>1.081037872375715</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.03074780580783</v>
+        <v>1.075136105354105</v>
       </c>
       <c r="D24">
-        <v>1.047857963669458</v>
+        <v>1.078869977684572</v>
       </c>
       <c r="E24">
-        <v>1.023181364011272</v>
+        <v>1.073518323546568</v>
       </c>
       <c r="F24">
-        <v>1.043002578806975</v>
+        <v>1.087217010051621</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.064827648765534</v>
+        <v>1.063164566941668</v>
       </c>
       <c r="J24">
-        <v>1.057111543130009</v>
+        <v>1.08107355163778</v>
       </c>
       <c r="K24">
-        <v>1.061093717056276</v>
+        <v>1.082096952654335</v>
       </c>
       <c r="L24">
-        <v>1.036813261638377</v>
+        <v>1.076762476608869</v>
       </c>
       <c r="M24">
-        <v>1.056314381811972</v>
+        <v>1.090417561275145</v>
       </c>
       <c r="N24">
-        <v>1.058612762773642</v>
+        <v>1.082608800081975</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.044476014000423</v>
+        <v>1.077532049271891</v>
       </c>
       <c r="D25">
-        <v>1.059269777679647</v>
+        <v>1.080874755997059</v>
       </c>
       <c r="E25">
-        <v>1.036046932113611</v>
+        <v>1.075799704306252</v>
       </c>
       <c r="F25">
-        <v>1.055955062417815</v>
+        <v>1.089540666345601</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.071203983872232</v>
+        <v>1.064095610341376</v>
       </c>
       <c r="J25">
-        <v>1.067593999901758</v>
+        <v>1.082884754488533</v>
       </c>
       <c r="K25">
-        <v>1.071012756550054</v>
+        <v>1.083792055005916</v>
       </c>
       <c r="L25">
-        <v>1.048110298998001</v>
+        <v>1.078731613439446</v>
       </c>
       <c r="M25">
-        <v>1.06774268743254</v>
+        <v>1.092433359303651</v>
       </c>
       <c r="N25">
-        <v>1.069110105836362</v>
+        <v>1.084422575048525</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_149/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_149/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.079437672839434</v>
+        <v>1.054785202492263</v>
       </c>
       <c r="D2">
-        <v>1.082468570995508</v>
+        <v>1.067847483446187</v>
       </c>
       <c r="E2">
-        <v>1.077609996695981</v>
+        <v>1.045686410255266</v>
       </c>
       <c r="F2">
-        <v>1.091387622825828</v>
+        <v>1.065683652146285</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.064830520483784</v>
+        <v>1.075946493811287</v>
       </c>
       <c r="J2">
-        <v>1.084322175320534</v>
+        <v>1.075442261973443</v>
       </c>
       <c r="K2">
-        <v>1.0851367087605</v>
+        <v>1.0784360965184</v>
       </c>
       <c r="L2">
-        <v>1.080290844615396</v>
+        <v>1.05654394191618</v>
       </c>
       <c r="M2">
-        <v>1.094032745868362</v>
+        <v>1.076297911956924</v>
       </c>
       <c r="N2">
-        <v>1.085862037182981</v>
+        <v>1.076969513340396</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.080818345942717</v>
+        <v>1.06194576970897</v>
       </c>
       <c r="D3">
-        <v>1.083622919188407</v>
+        <v>1.073808571278388</v>
       </c>
       <c r="E3">
-        <v>1.078919175726516</v>
+        <v>1.052369032605269</v>
       </c>
       <c r="F3">
-        <v>1.092725114617711</v>
+        <v>1.072441382486451</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065359735033636</v>
+        <v>1.079213434678093</v>
       </c>
       <c r="J3">
-        <v>1.085361809124349</v>
+        <v>1.080879236939879</v>
       </c>
       <c r="K3">
-        <v>1.08610888314138</v>
+        <v>1.083576748486252</v>
       </c>
       <c r="L3">
-        <v>1.081416550490377</v>
+        <v>1.062372978781388</v>
       </c>
       <c r="M3">
-        <v>1.095189297141629</v>
+        <v>1.082224249579844</v>
       </c>
       <c r="N3">
-        <v>1.086903147386045</v>
+        <v>1.082414209434915</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.08171040081098</v>
+        <v>1.066442142590294</v>
       </c>
       <c r="D4">
-        <v>1.084368551582291</v>
+        <v>1.07755279379473</v>
       </c>
       <c r="E4">
-        <v>1.079763922590518</v>
+        <v>1.056559342418329</v>
       </c>
       <c r="F4">
-        <v>1.093588958903486</v>
+        <v>1.076684805841988</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065700158957378</v>
+        <v>1.081252112945283</v>
       </c>
       <c r="J4">
-        <v>1.086032677944361</v>
+        <v>1.084286493900731</v>
       </c>
       <c r="K4">
-        <v>1.08673605182142</v>
+        <v>1.086797350391308</v>
       </c>
       <c r="L4">
-        <v>1.082142028096045</v>
+        <v>1.066019901863855</v>
       </c>
       <c r="M4">
-        <v>1.095935510362141</v>
+        <v>1.085938090066469</v>
       </c>
       <c r="N4">
-        <v>1.087574968916731</v>
+        <v>1.085826305091468</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.082085107813336</v>
+        <v>1.068301413959141</v>
       </c>
       <c r="D5">
-        <v>1.084681707093636</v>
+        <v>1.07910124005163</v>
       </c>
       <c r="E5">
-        <v>1.080118491681366</v>
+        <v>1.05829062330267</v>
       </c>
       <c r="F5">
-        <v>1.093951741803806</v>
+        <v>1.078439456139668</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065842794029968</v>
+        <v>1.082092025644679</v>
       </c>
       <c r="J5">
-        <v>1.086314274674831</v>
+        <v>1.085693746391781</v>
       </c>
       <c r="K5">
-        <v>1.086999264907732</v>
+        <v>1.088127274862475</v>
       </c>
       <c r="L5">
-        <v>1.08244632426267</v>
+        <v>1.067524718736188</v>
       </c>
       <c r="M5">
-        <v>1.09624870896518</v>
+        <v>1.087471957380911</v>
       </c>
       <c r="N5">
-        <v>1.087856965546858</v>
+        <v>1.087235556042471</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.082148004602233</v>
+        <v>1.068611825117911</v>
       </c>
       <c r="D6">
-        <v>1.084734269339517</v>
+        <v>1.079359767692078</v>
       </c>
       <c r="E6">
-        <v>1.080177992614787</v>
+        <v>1.058579581675494</v>
       </c>
       <c r="F6">
-        <v>1.094012632712048</v>
+        <v>1.078732398257788</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.06586671507113</v>
+        <v>1.082232069044555</v>
       </c>
       <c r="J6">
-        <v>1.086361530548425</v>
+        <v>1.085928592858499</v>
       </c>
       <c r="K6">
-        <v>1.087043433368514</v>
+        <v>1.088349202482038</v>
       </c>
       <c r="L6">
-        <v>1.082497376388636</v>
+        <v>1.067775764128631</v>
       </c>
       <c r="M6">
-        <v>1.096301266687483</v>
+        <v>1.087727933529148</v>
       </c>
       <c r="N6">
-        <v>1.087904288529213</v>
+        <v>1.087470736018109</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.08171540888588</v>
+        <v>1.066467105827744</v>
       </c>
       <c r="D7">
-        <v>1.084372737187198</v>
+        <v>1.077573583095746</v>
       </c>
       <c r="E7">
-        <v>1.079768662561373</v>
+        <v>1.056582592884878</v>
       </c>
       <c r="F7">
-        <v>1.093593807900745</v>
+        <v>1.076708364533633</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065702066733405</v>
+        <v>1.081263402183509</v>
       </c>
       <c r="J7">
-        <v>1.086036442362846</v>
+        <v>1.084305394798093</v>
       </c>
       <c r="K7">
-        <v>1.086739570644669</v>
+        <v>1.086815213637006</v>
       </c>
       <c r="L7">
-        <v>1.082146096837416</v>
+        <v>1.066040118751336</v>
       </c>
       <c r="M7">
-        <v>1.095939697331564</v>
+        <v>1.085958691555244</v>
       </c>
       <c r="N7">
-        <v>1.087578738681122</v>
+        <v>1.085845232830274</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.079904557545791</v>
+        <v>1.057234642495741</v>
       </c>
       <c r="D8">
-        <v>1.082858962121182</v>
+        <v>1.069886355820433</v>
       </c>
       <c r="E8">
-        <v>1.0780529368987</v>
+        <v>1.047973608995229</v>
       </c>
       <c r="F8">
-        <v>1.091839970055864</v>
+        <v>1.067995274034034</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065009789594304</v>
+        <v>1.077066698590688</v>
       </c>
       <c r="J8">
-        <v>1.084673909142955</v>
+        <v>1.07730352542916</v>
       </c>
       <c r="K8">
-        <v>1.085465654409366</v>
+        <v>1.080196115504246</v>
       </c>
       <c r="L8">
-        <v>1.080671892761621</v>
+        <v>1.058540712897696</v>
       </c>
       <c r="M8">
-        <v>1.094424057124838</v>
+        <v>1.078326728459535</v>
       </c>
       <c r="N8">
-        <v>1.086214270507774</v>
+        <v>1.078833420003711</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.076703116447553</v>
+        <v>1.039827441847431</v>
       </c>
       <c r="D9">
-        <v>1.080181262262247</v>
+        <v>1.055404073793829</v>
       </c>
       <c r="E9">
-        <v>1.075011062679034</v>
+        <v>1.031693941804732</v>
       </c>
       <c r="F9">
-        <v>1.088736925488656</v>
+        <v>1.051568750980477</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.063774361789257</v>
+        <v>1.069052077309005</v>
       </c>
       <c r="J9">
-        <v>1.082258610862702</v>
+        <v>1.064048141598987</v>
       </c>
       <c r="K9">
-        <v>1.083206145064131</v>
+        <v>1.067657952004675</v>
       </c>
       <c r="L9">
-        <v>1.078051421255545</v>
+        <v>1.044292914971959</v>
       </c>
       <c r="M9">
-        <v>1.091736550251958</v>
+        <v>1.063877116079673</v>
       </c>
       <c r="N9">
-        <v>1.083795542226925</v>
+        <v>1.065559212008085</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.074561374845161</v>
+        <v>1.027316724249704</v>
       </c>
       <c r="D10">
-        <v>1.078388942627017</v>
+        <v>1.045008048769225</v>
       </c>
       <c r="E10">
-        <v>1.072970224560134</v>
+        <v>1.019961293322493</v>
       </c>
       <c r="F10">
-        <v>1.086659383340199</v>
+        <v>1.039766036659944</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.06294011029789</v>
+        <v>1.06322456332734</v>
       </c>
       <c r="J10">
-        <v>1.080638461014891</v>
+        <v>1.054486941089457</v>
       </c>
       <c r="K10">
-        <v>1.081689626545275</v>
+        <v>1.058609589787656</v>
       </c>
       <c r="L10">
-        <v>1.07628873275704</v>
+        <v>1.033979256886108</v>
       </c>
       <c r="M10">
-        <v>1.089933237912336</v>
+        <v>1.053452596961087</v>
       </c>
       <c r="N10">
-        <v>1.082173091580496</v>
+        <v>1.055984433497146</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.073632122113622</v>
+        <v>1.021647689858552</v>
       </c>
       <c r="D11">
-        <v>1.077611075305607</v>
+        <v>1.040301429488065</v>
       </c>
       <c r="E11">
-        <v>1.072083352953826</v>
+        <v>1.014637280446363</v>
       </c>
       <c r="F11">
-        <v>1.085757596381488</v>
+        <v>1.0344191513237</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.062576307708906</v>
+        <v>1.060568478026755</v>
       </c>
       <c r="J11">
-        <v>1.079934488576409</v>
+        <v>1.050146828315211</v>
       </c>
       <c r="K11">
-        <v>1.081030477515419</v>
+        <v>1.054501340482022</v>
       </c>
       <c r="L11">
-        <v>1.075521649273864</v>
+        <v>1.029288339323595</v>
       </c>
       <c r="M11">
-        <v>1.089149538418754</v>
+        <v>1.048719908593299</v>
       </c>
       <c r="N11">
-        <v>1.081468119420405</v>
+        <v>1.051638157264943</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.073286668444973</v>
+        <v>1.019500480873697</v>
       </c>
       <c r="D12">
-        <v>1.077321867157773</v>
+        <v>1.038519488009243</v>
       </c>
       <c r="E12">
-        <v>1.071753443497181</v>
+        <v>1.012619631903292</v>
       </c>
       <c r="F12">
-        <v>1.085422294548085</v>
+        <v>1.032394215173416</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.062440786132543</v>
+        <v>1.059560190294545</v>
       </c>
       <c r="J12">
-        <v>1.079672629689012</v>
+        <v>1.048501875615562</v>
       </c>
       <c r="K12">
-        <v>1.080785260922612</v>
+        <v>1.052944140358366</v>
       </c>
       <c r="L12">
-        <v>1.075236137027299</v>
+        <v>1.027508988585295</v>
       </c>
       <c r="M12">
-        <v>1.088858001504812</v>
+        <v>1.046926040032209</v>
       </c>
       <c r="N12">
-        <v>1.081205888663352</v>
+        <v>1.049990868543782</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.073360782578882</v>
+        <v>1.019963005305245</v>
       </c>
       <c r="D13">
-        <v>1.077383915764636</v>
+        <v>1.038903295695176</v>
       </c>
       <c r="E13">
-        <v>1.071824232323633</v>
+        <v>1.013054298371809</v>
       </c>
       <c r="F13">
-        <v>1.085494233351763</v>
+        <v>1.032830388658108</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.062469873635535</v>
+        <v>1.059777484157606</v>
       </c>
       <c r="J13">
-        <v>1.079728816249101</v>
+        <v>1.048856258506116</v>
       </c>
       <c r="K13">
-        <v>1.080837877970464</v>
+        <v>1.053279623613587</v>
       </c>
       <c r="L13">
-        <v>1.075297406900838</v>
+        <v>1.027892391506387</v>
       </c>
       <c r="M13">
-        <v>1.088920557012185</v>
+        <v>1.047312510849676</v>
       </c>
       <c r="N13">
-        <v>1.081262155014801</v>
+        <v>1.050345754698689</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.073603572722048</v>
+        <v>1.021471069836337</v>
       </c>
       <c r="D14">
-        <v>1.077587174885934</v>
+        <v>1.040154839022731</v>
       </c>
       <c r="E14">
-        <v>1.0720560924977</v>
+        <v>1.014471340120116</v>
       </c>
       <c r="F14">
-        <v>1.085729887168192</v>
+        <v>1.034252583409356</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.062565113411246</v>
+        <v>1.060485586304224</v>
       </c>
       <c r="J14">
-        <v>1.079912850866708</v>
+        <v>1.050011543403203</v>
       </c>
       <c r="K14">
-        <v>1.081010215606136</v>
+        <v>1.054373275035501</v>
       </c>
       <c r="L14">
-        <v>1.075498060689086</v>
+        <v>1.029142030661368</v>
       </c>
       <c r="M14">
-        <v>1.089125448824016</v>
+        <v>1.048572379145515</v>
       </c>
       <c r="N14">
-        <v>1.081446450982674</v>
+        <v>1.051502680232843</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.073753125370497</v>
+        <v>1.022394624716943</v>
       </c>
       <c r="D15">
-        <v>1.077712373105245</v>
+        <v>1.040921398726476</v>
       </c>
       <c r="E15">
-        <v>1.072198884558206</v>
+        <v>1.015339004914733</v>
       </c>
       <c r="F15">
-        <v>1.0858750362371</v>
+        <v>1.035123586040736</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.062623742114461</v>
+        <v>1.060918939498468</v>
       </c>
       <c r="J15">
-        <v>1.080026191168795</v>
+        <v>1.05071891110238</v>
       </c>
       <c r="K15">
-        <v>1.081116348079073</v>
+        <v>1.055042889079696</v>
       </c>
       <c r="L15">
-        <v>1.075621612572593</v>
+        <v>1.029906979766896</v>
       </c>
       <c r="M15">
-        <v>1.089251631433004</v>
+        <v>1.049343764946715</v>
       </c>
       <c r="N15">
-        <v>1.081559952240991</v>
+        <v>1.052211052475288</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.074623006349098</v>
+        <v>1.027687353688229</v>
       </c>
       <c r="D16">
-        <v>1.078440529082628</v>
+        <v>1.045315853277421</v>
       </c>
       <c r="E16">
-        <v>1.073029015658696</v>
+        <v>1.020309210958185</v>
       </c>
       <c r="F16">
-        <v>1.086719185002768</v>
+        <v>1.040115636682679</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.062964200308064</v>
+        <v>1.063397897563355</v>
       </c>
       <c r="J16">
-        <v>1.080685129488383</v>
+        <v>1.054770535649334</v>
       </c>
       <c r="K16">
-        <v>1.081733319220098</v>
+        <v>1.058878015645759</v>
       </c>
       <c r="L16">
-        <v>1.076339560215917</v>
+        <v>1.034285578801085</v>
       </c>
       <c r="M16">
-        <v>1.089985188724258</v>
+        <v>1.053761827429354</v>
       </c>
       <c r="N16">
-        <v>1.082219826328573</v>
+        <v>1.056268430793827</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.075168155103249</v>
+        <v>1.030937498892942</v>
       </c>
       <c r="D17">
-        <v>1.078896801019117</v>
+        <v>1.048015553804755</v>
       </c>
       <c r="E17">
-        <v>1.073548878665773</v>
+        <v>1.023359340721111</v>
       </c>
       <c r="F17">
-        <v>1.087248103361106</v>
+        <v>1.043181525304458</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.063177071194934</v>
+        <v>1.064916175189243</v>
       </c>
       <c r="J17">
-        <v>1.081097807400472</v>
+        <v>1.057256597987607</v>
       </c>
       <c r="K17">
-        <v>1.082119659180962</v>
+        <v>1.061231002060617</v>
       </c>
       <c r="L17">
-        <v>1.076788879232399</v>
+        <v>1.036969828114491</v>
       </c>
       <c r="M17">
-        <v>1.09044456074198</v>
+        <v>1.056472540544502</v>
       </c>
       <c r="N17">
-        <v>1.082633090290632</v>
+        <v>1.058758023625777</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.075485951777158</v>
+        <v>1.032809227694853</v>
       </c>
       <c r="D18">
-        <v>1.079162765279213</v>
+        <v>1.049570670534473</v>
       </c>
       <c r="E18">
-        <v>1.073851800197434</v>
+        <v>1.025115172806035</v>
       </c>
       <c r="F18">
-        <v>1.087556400998461</v>
+        <v>1.044947263222297</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.063300987823803</v>
+        <v>1.06578908419435</v>
       </c>
       <c r="J18">
-        <v>1.081338280735613</v>
+        <v>1.058687580601139</v>
       </c>
       <c r="K18">
-        <v>1.082344765221866</v>
+        <v>1.062585297847779</v>
       </c>
       <c r="L18">
-        <v>1.077050590650517</v>
+        <v>1.038514024270427</v>
       </c>
       <c r="M18">
-        <v>1.090712229860451</v>
+        <v>1.058032769399063</v>
       </c>
       <c r="N18">
-        <v>1.082873905125492</v>
+        <v>1.060191038398755</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.075594282038029</v>
+        <v>1.033443466670699</v>
       </c>
       <c r="D19">
-        <v>1.079253423319937</v>
+        <v>1.05009768682358</v>
       </c>
       <c r="E19">
-        <v>1.073955037013849</v>
+        <v>1.02571001921131</v>
       </c>
       <c r="F19">
-        <v>1.087661486889366</v>
+        <v>1.045545605928863</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.06334319834275</v>
+        <v>1.066084623141711</v>
       </c>
       <c r="J19">
-        <v>1.081420236300399</v>
+        <v>1.059172348557843</v>
       </c>
       <c r="K19">
-        <v>1.082421480109765</v>
+        <v>1.063044071626071</v>
       </c>
       <c r="L19">
-        <v>1.077139765179752</v>
+        <v>1.03903700008485</v>
       </c>
       <c r="M19">
-        <v>1.09080345172165</v>
+        <v>1.058561311450042</v>
       </c>
       <c r="N19">
-        <v>1.082955977076581</v>
+        <v>1.060676494781562</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.07510968441188</v>
+        <v>1.030591299001809</v>
       </c>
       <c r="D20">
-        <v>1.078847865136225</v>
+        <v>1.047727945653011</v>
       </c>
       <c r="E20">
-        <v>1.073493133977309</v>
+        <v>1.023034519807517</v>
       </c>
       <c r="F20">
-        <v>1.087191377361089</v>
+        <v>1.042854939180381</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.063154257775317</v>
+        <v>1.064754601547315</v>
       </c>
       <c r="J20">
-        <v>1.081053555288396</v>
+        <v>1.056991861139504</v>
       </c>
       <c r="K20">
-        <v>1.08207823337706</v>
+        <v>1.06098044532204</v>
       </c>
       <c r="L20">
-        <v>1.076740709758162</v>
+        <v>1.036684076742165</v>
       </c>
       <c r="M20">
-        <v>1.090395302951281</v>
+        <v>1.056183887709166</v>
       </c>
       <c r="N20">
-        <v>1.082588775335482</v>
+        <v>1.058492910820983</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.073532085083986</v>
+        <v>1.021028159120657</v>
       </c>
       <c r="D21">
-        <v>1.077527327741681</v>
+        <v>1.039787245888285</v>
       </c>
       <c r="E21">
-        <v>1.071987828938441</v>
+        <v>1.01405519296223</v>
       </c>
       <c r="F21">
-        <v>1.085660502386746</v>
+        <v>1.033834884710188</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.062537078440751</v>
+        <v>1.060277682167142</v>
       </c>
       <c r="J21">
-        <v>1.079858667581709</v>
+        <v>1.049672271621865</v>
       </c>
       <c r="K21">
-        <v>1.080959476984426</v>
+        <v>1.054052106474487</v>
       </c>
       <c r="L21">
-        <v>1.075438989317433</v>
+        <v>1.028775089861247</v>
       </c>
       <c r="M21">
-        <v>1.089065125387985</v>
+        <v>1.048202398041665</v>
       </c>
       <c r="N21">
-        <v>1.081392190751195</v>
+        <v>1.05116292664666</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.072538516620261</v>
+        <v>1.014773278730824</v>
       </c>
       <c r="D22">
-        <v>1.076695467554206</v>
+        <v>1.034597951235394</v>
       </c>
       <c r="E22">
-        <v>1.071038568502557</v>
+        <v>1.008175615191079</v>
       </c>
       <c r="F22">
-        <v>1.084696021004768</v>
+        <v>1.027936742773146</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.062146780324079</v>
+        <v>1.057336269746553</v>
       </c>
       <c r="J22">
-        <v>1.079105237901011</v>
+        <v>1.044878479353695</v>
       </c>
       <c r="K22">
-        <v>1.080253873087883</v>
+        <v>1.049513822493981</v>
       </c>
       <c r="L22">
-        <v>1.074617167184938</v>
+        <v>1.023586832948133</v>
       </c>
       <c r="M22">
-        <v>1.088226263560108</v>
+        <v>1.042974365076805</v>
       </c>
       <c r="N22">
-        <v>1.080637691113932</v>
+        <v>1.046362326643614</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.073065386867084</v>
+        <v>1.018113412732895</v>
       </c>
       <c r="D23">
-        <v>1.077136604721187</v>
+        <v>1.037368602482573</v>
       </c>
       <c r="E23">
-        <v>1.071542059246873</v>
+        <v>1.011315944252778</v>
       </c>
       <c r="F23">
-        <v>1.085207499211902</v>
+        <v>1.031086213202552</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.06235389949026</v>
+        <v>1.058908218248372</v>
       </c>
       <c r="J23">
-        <v>1.079504851665413</v>
+        <v>1.047438959205135</v>
       </c>
       <c r="K23">
-        <v>1.080628137270031</v>
+        <v>1.051937893040589</v>
       </c>
       <c r="L23">
-        <v>1.07505315367746</v>
+        <v>1.026358816037606</v>
       </c>
       <c r="M23">
-        <v>1.088671202026037</v>
+        <v>1.045766860771997</v>
       </c>
       <c r="N23">
-        <v>1.081037872375715</v>
+        <v>1.048926442670135</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.075136105354105</v>
+        <v>1.03074780580783</v>
       </c>
       <c r="D24">
-        <v>1.078869977684572</v>
+        <v>1.047857963669458</v>
       </c>
       <c r="E24">
-        <v>1.073518323546568</v>
+        <v>1.023181364011273</v>
       </c>
       <c r="F24">
-        <v>1.087217010051621</v>
+        <v>1.043002578806975</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.063164566941668</v>
+        <v>1.064827648765535</v>
       </c>
       <c r="J24">
-        <v>1.08107355163778</v>
+        <v>1.057111543130009</v>
       </c>
       <c r="K24">
-        <v>1.082096952654335</v>
+        <v>1.061093717056277</v>
       </c>
       <c r="L24">
-        <v>1.076762476608869</v>
+        <v>1.036813261638378</v>
       </c>
       <c r="M24">
-        <v>1.090417561275145</v>
+        <v>1.056314381811973</v>
       </c>
       <c r="N24">
-        <v>1.082608800081975</v>
+        <v>1.058612762773643</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.077532049271891</v>
+        <v>1.044476014000421</v>
       </c>
       <c r="D25">
-        <v>1.080874755997059</v>
+        <v>1.059269777679644</v>
       </c>
       <c r="E25">
-        <v>1.075799704306252</v>
+        <v>1.03604693211361</v>
       </c>
       <c r="F25">
-        <v>1.089540666345601</v>
+        <v>1.055955062417813</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.064095610341376</v>
+        <v>1.07120398387223</v>
       </c>
       <c r="J25">
-        <v>1.082884754488533</v>
+        <v>1.067593999901755</v>
       </c>
       <c r="K25">
-        <v>1.083792055005916</v>
+        <v>1.071012756550052</v>
       </c>
       <c r="L25">
-        <v>1.078731613439446</v>
+        <v>1.048110298998</v>
       </c>
       <c r="M25">
-        <v>1.092433359303651</v>
+        <v>1.067742687432538</v>
       </c>
       <c r="N25">
-        <v>1.084422575048525</v>
+        <v>1.069110105836359</v>
       </c>
     </row>
   </sheetData>
